--- a/data/codebook-pilot.xlsx
+++ b/data/codebook-pilot.xlsx
@@ -1472,8 +1472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U91" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AO111" sqref="AO111"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="V21" sqref="V21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5126,7 +5126,7 @@
         <v>1</v>
       </c>
       <c r="T76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U76" s="7">
         <v>1</v>
@@ -5150,6 +5150,9 @@
         <v>1</v>
       </c>
       <c r="AN76">
+        <v>1</v>
+      </c>
+      <c r="AO76">
         <v>0</v>
       </c>
       <c r="AP76" t="s">
